--- a/ref_exchange_rate_history.xlsx
+++ b/ref_exchange_rate_history.xlsx
@@ -504,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F737"/>
+  <dimension ref="A1:F738"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C731" sqref="C731"/>
+      <selection pane="bottomLeft" activeCell="H722" sqref="H722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15247,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="C737" s="12">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="D737" s="10">
         <v>1</v>
@@ -15257,6 +15257,26 @@
       </c>
       <c r="F737" s="13">
         <v>0.84255000000000002</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6">
+      <c r="A738" s="10">
+        <v>2</v>
+      </c>
+      <c r="B738" s="11">
+        <v>1</v>
+      </c>
+      <c r="C738" s="12">
+        <v>44652</v>
+      </c>
+      <c r="D738" s="10">
+        <v>1</v>
+      </c>
+      <c r="E738" s="10">
+        <v>2</v>
+      </c>
+      <c r="F738" s="13">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
